--- a/relazioni/esperienza_1/curva_voltammetrica/prova1.xlsx
+++ b/relazioni/esperienza_1/curva_voltammetrica/prova1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_1\curva voltammetrica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_1/curva_voltammetrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9EFE5C-97FE-4D0D-86AB-36A2A1D11413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A952B026-A4D3-7743-83AE-5C55974855A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{934D8033-4E35-4E84-87F2-01862E2FB994}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{934D8033-4E35-4E84-87F2-01862E2FB994}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,7 +177,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -801,7 +801,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1320,7 +1320,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1758,7 +1758,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2184,7 +2184,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2808,7 +2808,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6900,7 +6900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7218,19 +7218,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F40985E-3959-4527-A6B5-C2CF6D3D1F00}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J54" si="0">1/((D3-D2)/(C3-C2))</f>
+        <f>(C3-C2)/(D3-D2)</f>
         <v>2.7790697674418618</v>
       </c>
       <c r="K2" s="6">
@@ -7301,7 +7301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7323,8 +7323,8 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666647</v>
+        <f t="shared" ref="J3:J54" si="0">(C4-C3)/(D4-D3)</f>
+        <v>3.1666666666666643</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K54" si="1">J3*((F3/(C4-C3))+(E3/(D4-D3)))*2</f>
@@ -7338,7 +7338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="H4" s="2"/>
       <c r="J4" s="6">
         <f t="shared" si="0"/>
-        <v>3.8769230769230747</v>
+        <v>3.8769230769230751</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" si="1"/>
@@ -7375,7 +7375,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.7</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>11.229425630903835</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.5</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.5</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>16.389020715100706</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1.1000000000000001</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="H9" s="2"/>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>11.000000000000163</v>
+        <v>11.000000000000162</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="1"/>
@@ -7539,7 +7539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.9</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="H10" s="2"/>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
-        <v>15.600000000000021</v>
+        <v>15.600000000000023</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="1"/>
@@ -7570,7 +7570,7 @@
         <v>16.715262486721528</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.2</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>16.946976131451887</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.7</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>17.268468374467957</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2.2000000000000002</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>17.481418706729727</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3.4</v>
       </c>
@@ -7683,18 +7683,18 @@
       <c r="H14" s="2"/>
       <c r="J14" s="6">
         <f t="shared" si="0"/>
-        <v>15.857142857142824</v>
+        <v>15.857142857142826</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>4.8163265306122165</v>
+        <v>4.8163265306122174</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
         <v>17.739785793520731</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>4.9000000000000004</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="H15" s="2"/>
       <c r="J15" s="6">
         <f t="shared" si="0"/>
-        <v>14.600000000000021</v>
+        <v>14.600000000000023</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="1"/>
@@ -7725,7 +7725,7 @@
         <v>18.049930747789588</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>6.4</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="H16" s="2"/>
       <c r="J16" s="6">
         <f t="shared" si="0"/>
-        <v>14.769230769230791</v>
+        <v>14.769230769230793</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="1"/>
@@ -7756,7 +7756,7 @@
         <v>18.251027368342857</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12.4</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="H17" s="2"/>
       <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>15.125000000000012</v>
+        <v>15.125000000000011</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="1"/>
@@ -7787,7 +7787,7 @@
         <v>18.769656363396749</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>18.100000000000001</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>19.089263998384013</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>27.7</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>19.480759738778158</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>37.6</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>19.783831782544048</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>0.405*1000</f>
         <v>405</v>
@@ -7898,18 +7898,18 @@
       <c r="H21" s="2"/>
       <c r="J21" s="6">
         <f t="shared" si="0"/>
-        <v>14.347826086956541</v>
+        <v>14.347826086956539</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="1"/>
-        <v>0.70573408947700211</v>
+        <v>0.705734089477002</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
         <v>20.124611797498108</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>0.504*1000</f>
         <v>504</v>
@@ -7938,7 +7938,7 @@
         <v>22.449944320643649</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C23">
         <f>1.21*1000</f>
         <v>1210</v>
@@ -7956,7 +7956,7 @@
       <c r="H23" s="2"/>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>14.467005076142131</v>
+        <v>14.467005076142129</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="1"/>
@@ -7967,7 +7967,7 @@
         <v>34.785054261852174</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>1.495*1000</f>
         <v>1495</v>
@@ -7996,7 +7996,7 @@
         <v>38.665229858362409</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>2.03*1000</f>
         <v>2029.9999999999998</v>
@@ -8025,7 +8025,7 @@
         <v>45.055521304275238</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>2.503*1000</f>
         <v>2503</v>
@@ -8054,7 +8054,7 @@
         <v>50.029991005395956</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27">
         <f>3.037*1000</f>
@@ -8084,7 +8084,7 @@
         <v>55.108982933819419</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C28">
         <f>3.547*1000</f>
         <v>3547</v>
@@ -8113,7 +8113,7 @@
         <v>59.556695677312391</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>4.03*1000</f>
         <v>4030.0000000000005</v>
@@ -8131,18 +8131,18 @@
       <c r="H29" s="2"/>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
-        <v>53.99999999999995</v>
+        <v>53.999999999999957</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="1"/>
-        <v>109.9999999999999</v>
+        <v>109.99999999999993</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
         <v>63.482280992415518</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>4.57*1000</f>
         <v>4570</v>
@@ -8171,7 +8171,7 @@
         <v>67.601775124622279</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C31">
         <f>5.14*1000</f>
         <v>5140</v>
@@ -8200,7 +8200,7 @@
         <v>71.693793315739683</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C32">
         <f>5.73*1000</f>
         <v>5730</v>
@@ -8229,7 +8229,7 @@
         <v>75.696763471102244</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33">
         <f>6.29*1000</f>
         <v>6290</v>
@@ -8258,7 +8258,7 @@
         <v>79.309520235593411</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>6.59*1000</f>
         <v>6590</v>
@@ -8287,7 +8287,7 @@
         <v>81.178814970409618</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>7.1*1000</f>
         <v>7100</v>
@@ -8316,7 +8316,7 @@
         <v>84.261497731763583</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C36">
         <f>7.46*1000</f>
         <v>7460</v>
@@ -8345,7 +8345,7 @@
         <v>86.371291526756735</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37">
         <f>8.08*1000</f>
         <v>8080</v>
@@ -8374,7 +8374,7 @@
         <v>89.888820216976924</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38">
         <f>8.63*1000</f>
         <v>8630</v>
@@ -8403,7 +8403,7 @@
         <v>92.897793299948731</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C39">
         <f>9.05*1000</f>
         <v>9050</v>
@@ -8432,7 +8432,7 @@
         <v>95.131487952202235</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40">
         <f>9.52*1000</f>
         <v>9520</v>
@@ -8461,7 +8461,7 @@
         <v>97.570487341203744</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C41">
         <f>10.13*1000</f>
         <v>10130</v>
@@ -8490,7 +8490,7 @@
         <v>100.64790112068906</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C42">
         <f>10.75*1000</f>
         <v>10750</v>
@@ -8519,7 +8519,7 @@
         <v>103.6822067666386</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C43">
         <f>11.05*1000</f>
         <v>11050</v>
@@ -8548,7 +8548,7 @@
         <v>105.11898020814318</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44">
         <f>11.63*1000</f>
         <v>11630</v>
@@ -8577,7 +8577,7 @@
         <v>107.8424777163433</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45">
         <f>12.23*1000</f>
         <v>12230</v>
@@ -8606,7 +8606,7 @@
         <v>110.58933040759402</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C46">
         <f>12.93*1000</f>
         <v>12930</v>
@@ -8635,7 +8635,7 @@
         <v>113.71015785759863</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C47">
         <f>13.64*1000</f>
         <v>13640</v>
@@ -8664,7 +8664,7 @@
         <v>116.79041056525146</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C48">
         <f>14.26*1000</f>
         <v>14260</v>
@@ -8693,7 +8693,7 @@
         <v>119.41524190822544</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49">
         <f>14.92*1000</f>
         <v>14920</v>
@@ -8722,7 +8722,7 @@
         <v>122.14745187681976</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>15.64*1000</f>
         <v>15640</v>
@@ -8751,7 +8751,7 @@
         <v>125.05998560690786</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51">
         <f>16.18*1000</f>
         <v>16180</v>
@@ -8780,7 +8780,7 @@
         <v>127.20062892926276</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52">
         <f>16.51*1000</f>
         <v>16510</v>
@@ -8809,7 +8809,7 @@
         <v>128.49124483792662</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53">
         <f>17.05*1000</f>
         <v>17050</v>
@@ -8827,7 +8827,7 @@
       <c r="H53" s="2"/>
       <c r="J53" s="6">
         <f t="shared" si="0"/>
-        <v>-98.000000000000014</v>
+        <v>-98</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="1"/>
@@ -8838,7 +8838,7 @@
         <v>130.57564857200595</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54">
         <f>18.03*1000</f>
         <v>18030</v>
@@ -8867,7 +8867,7 @@
         <v>134.27583550289307</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>18500</v>
       </c>
@@ -8887,40 +8887,40 @@
         <v>136.01470508735443</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -8936,18 +8936,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BDF34-886C-47C6-94C3-8424D0F86E59}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="57" zoomScaleNormal="42" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="57" zoomScaleNormal="42" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1.1000000000000001</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.7</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>11.229425630903835</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.5</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>12.645157175772866</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.5</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>14.649232061783989</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>16.69131510696506</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1.1000000000000001</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>16.48332490731163</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.9</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>16.715262486721528</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.2</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>16.946976131451887</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.7</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>17.268468374467957</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2.2000000000000002</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>17.481418706729727</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3.4</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>17.739785793520731</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>4.9000000000000004</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>18.049930747789588</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>6.4</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>18.251027368342857</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12.4</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>18.769656363396749</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>18.100000000000001</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>19.089263998384013</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>27.7</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>19.480759738778158</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>37.6</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>19.783831782544048</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>0.405*1000</f>
         <v>405</v>
@@ -9479,7 +9479,7 @@
         <v>14.347826086956541</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>0.504*1000</f>
         <v>504</v>
@@ -9498,7 +9498,7 @@
         <v>18.290155440414505</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C23">
         <f>1.21*1000</f>
         <v>1210</v>
@@ -9517,7 +9517,7 @@
         <v>14.467005076142131</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>1.495*1000</f>
         <v>1495</v>
@@ -9551,15 +9551,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.7</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>11.229425630903835</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.5</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.5</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>16.389020715100706</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1.1000000000000001</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.9</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>16.715262486721528</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.2</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>16.946976131451887</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.7</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>17.268468374467957</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2.2000000000000002</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>17.481418706729727</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3.4</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>17.739785793520731</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>4.9000000000000004</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>18.049930747789588</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>6.4</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>18.251027368342857</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12.4</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>18.769656363396749</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>18.100000000000001</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>19.089263998384013</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>27.7</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>19.480759738778158</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>37.6</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>19.783831782544048</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>0.405*1000</f>
         <v>405</v>
@@ -10238,7 +10238,7 @@
         <v>20.124611797498108</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>0.504*1000</f>
         <v>504</v>
@@ -10267,7 +10267,7 @@
         <v>22.449944320643649</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C23">
         <f>1.21*1000</f>
         <v>1210</v>
@@ -10296,7 +10296,7 @@
         <v>34.785054261852174</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>1.495*1000</f>
         <v>1495</v>
@@ -10325,7 +10325,7 @@
         <v>38.665229858362409</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>2.03*1000</f>
         <v>2029.9999999999998</v>
@@ -10354,7 +10354,7 @@
         <v>45.055521304275238</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>2.503*1000</f>
         <v>2503</v>
@@ -10383,7 +10383,7 @@
         <v>50.029991005395956</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27">
         <f>3.037*1000</f>
@@ -10413,7 +10413,7 @@
         <v>55.108982933819419</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C28">
         <f>3.547*1000</f>
         <v>3547</v>
@@ -10442,7 +10442,7 @@
         <v>59.556695677312391</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>4.03*1000</f>
         <v>4030.0000000000005</v>
@@ -10471,7 +10471,7 @@
         <v>63.482280992415518</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>4.57*1000</f>
         <v>4570</v>
@@ -10500,7 +10500,7 @@
         <v>67.601775124622279</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C31">
         <f>5.14*1000</f>
         <v>5140</v>
@@ -10529,7 +10529,7 @@
         <v>71.693793315739683</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C32">
         <f>5.73*1000</f>
         <v>5730</v>
@@ -10558,7 +10558,7 @@
         <v>75.696763471102244</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33">
         <f>6.29*1000</f>
         <v>6290</v>
@@ -10587,7 +10587,7 @@
         <v>79.309520235593411</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>6.59*1000</f>
         <v>6590</v>
@@ -10616,7 +10616,7 @@
         <v>81.178814970409618</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>7.1*1000</f>
         <v>7100</v>
@@ -10645,7 +10645,7 @@
         <v>84.261497731763583</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C36">
         <f>7.46*1000</f>
         <v>7460</v>
@@ -10674,7 +10674,7 @@
         <v>86.371291526756735</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37">
         <f>8.08*1000</f>
         <v>8080</v>
@@ -10703,7 +10703,7 @@
         <v>89.888820216976924</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38">
         <f>8.63*1000</f>
         <v>8630</v>
@@ -10732,7 +10732,7 @@
         <v>92.897793299948731</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C39">
         <f>9.05*1000</f>
         <v>9050</v>
@@ -10761,7 +10761,7 @@
         <v>95.131487952202235</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40">
         <f>9.52*1000</f>
         <v>9520</v>
@@ -10790,7 +10790,7 @@
         <v>97.570487341203744</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C41">
         <f>10.13*1000</f>
         <v>10130</v>
@@ -10819,7 +10819,7 @@
         <v>100.64790112068906</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C42">
         <f>10.75*1000</f>
         <v>10750</v>
@@ -10848,7 +10848,7 @@
         <v>103.6822067666386</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C43">
         <f>11.05*1000</f>
         <v>11050</v>
@@ -10877,7 +10877,7 @@
         <v>105.11898020814318</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44">
         <f>11.63*1000</f>
         <v>11630</v>
@@ -10906,7 +10906,7 @@
         <v>107.8424777163433</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45">
         <f>12.23*1000</f>
         <v>12230</v>
@@ -10935,7 +10935,7 @@
         <v>110.58933040759402</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C46">
         <f>12.93*1000</f>
         <v>12930</v>
@@ -10964,7 +10964,7 @@
         <v>113.71015785759863</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C47">
         <f>13.64*1000</f>
         <v>13640</v>
@@ -10993,7 +10993,7 @@
         <v>116.79041056525146</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C48">
         <f>14.26*1000</f>
         <v>14260</v>
@@ -11022,7 +11022,7 @@
         <v>119.41524190822544</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49">
         <f>14.92*1000</f>
         <v>14920</v>
@@ -11051,7 +11051,7 @@
         <v>122.14745187681976</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>15.64*1000</f>
         <v>15640</v>
@@ -11080,7 +11080,7 @@
         <v>125.05998560690786</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51">
         <f>16.18*1000</f>
         <v>16180</v>
@@ -11109,7 +11109,7 @@
         <v>127.20062892926276</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52">
         <f>16.51*1000</f>
         <v>16510</v>
@@ -11138,7 +11138,7 @@
         <v>128.49124483792662</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53">
         <f>17.05*1000</f>
         <v>17050</v>
@@ -11167,7 +11167,7 @@
         <v>130.57564857200595</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54">
         <f>18.03*1000</f>
         <v>18030</v>
@@ -11196,7 +11196,7 @@
         <v>134.27583550289307</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>18500</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>136.01470508735443</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E57" s="2">
         <v>0</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E58" s="2">
         <v>0</v>
       </c>
@@ -11246,28 +11246,28 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F60" s="2">
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F61" s="2">
         <v>0</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F62" s="2">
         <v>0</v>
       </c>
@@ -11282,11 +11282,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11472,26 +11473,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B538B05-8F31-4F39-A4F6-F3C9F34515E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71BC9AF-B7D6-4ADC-A12C-0730E8730FD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11515,9 +11507,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71BC9AF-B7D6-4ADC-A12C-0730E8730FD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B538B05-8F31-4F39-A4F6-F3C9F34515E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>